--- a/docx/template_report/Template_EP_NHUA (1) (1).xlsx
+++ b/docx/template_report/Template_EP_NHUA (1) (1).xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DownloadChrome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildProject\SmartFactory\docx\template_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="NHAP_PO" sheetId="3" r:id="rId1"/>
     <sheet name="NHAP_NGUYEN_VAT_LIEU" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>Tên sản phẩm</t>
   </si>
@@ -536,17 +536,21 @@
   <si>
     <t>Nhập phục vụ</t>
   </si>
+  <si>
+    <t>Tổng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="0_ "/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -621,8 +625,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="34"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="34"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="34"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,8 +681,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -696,6 +748,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -704,7 +791,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -764,13 +851,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -791,48 +911,18 @@
     <xf numFmtId="41" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -840,6 +930,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -869,16 +968,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1034,6 +1158,142 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10220325" y="16744950"/>
+          <a:ext cx="19050" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="1149" r="32500" b="70689"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10872788" y="16859250"/>
+          <a:ext cx="19050" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="1149" r="32500" b="70689"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10215563" y="16859250"/>
           <a:ext cx="19050" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1391,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1488,13 +1748,13 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="192.75" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="32" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1503,13 +1763,13 @@
       <c r="E2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="26" t="s">
         <v>44</v>
       </c>
       <c r="I2" s="4">
@@ -1518,24 +1778,24 @@
       <c r="J2" s="4">
         <v>2</v>
       </c>
-      <c r="K2" s="41">
+      <c r="K2" s="22">
         <v>33</v>
       </c>
       <c r="L2" s="5">
         <v>3.15</v>
       </c>
-      <c r="M2" s="44">
+      <c r="M2" s="45">
         <f>(L2+L3+L4+L5)*2+9</f>
         <v>28.6</v>
       </c>
       <c r="N2" s="6"/>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="35">
         <v>397</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="Q2" s="38">
         <v>15.88</v>
       </c>
       <c r="R2" s="7">
@@ -1545,42 +1805,42 @@
         <f t="shared" ref="S2:S12" si="0">R2/I2</f>
         <v>17500</v>
       </c>
-      <c r="T2" s="56">
+      <c r="T2" s="48">
         <v>1080</v>
       </c>
-      <c r="U2" s="21">
+      <c r="U2" s="41">
         <f>T2*S2</f>
         <v>18900000</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="21">
-      <c r="A3" s="33"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="39"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="4">
         <v>2</v>
       </c>
       <c r="J3" s="4">
         <v>2</v>
       </c>
-      <c r="K3" s="42"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="5">
         <v>3.1</v>
       </c>
-      <c r="M3" s="45"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="28"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="39"/>
       <c r="R3" s="7">
         <v>35000</v>
       </c>
@@ -1588,37 +1848,37 @@
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="T3" s="57"/>
-      <c r="U3" s="23"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="42"/>
     </row>
     <row r="4" spans="1:21" ht="21">
-      <c r="A4" s="33"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="39"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="4">
         <v>2</v>
       </c>
       <c r="J4" s="4">
         <v>2</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="5">
         <v>1.8</v>
       </c>
-      <c r="M4" s="45"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="28"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="39"/>
       <c r="R4" s="7">
         <v>35000</v>
       </c>
@@ -1626,37 +1886,37 @@
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="T4" s="57"/>
-      <c r="U4" s="23"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="42"/>
     </row>
     <row r="5" spans="1:21" ht="21">
-      <c r="A5" s="33"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="4">
         <v>2</v>
       </c>
       <c r="J5" s="4">
         <v>2</v>
       </c>
-      <c r="K5" s="43"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="10">
         <v>1.75</v>
       </c>
-      <c r="M5" s="46"/>
+      <c r="M5" s="47"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="29"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="40"/>
       <c r="R5" s="7">
         <v>35000</v>
       </c>
@@ -1664,13 +1924,13 @@
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="T5" s="58"/>
-      <c r="U5" s="22"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="43"/>
     </row>
     <row r="6" spans="1:21" ht="192.75" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="38" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1679,13 +1939,13 @@
       <c r="E6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="26" t="s">
         <v>49</v>
       </c>
       <c r="I6" s="4">
@@ -1694,23 +1954,23 @@
       <c r="J6" s="4">
         <v>2</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="22">
         <v>33</v>
       </c>
       <c r="L6" s="5">
         <v>4.3</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="55">
         <v>31</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="35">
         <v>591</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="38">
         <v>23.64</v>
       </c>
       <c r="R6" s="7">
@@ -1720,42 +1980,42 @@
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="T6" s="56">
+      <c r="T6" s="48">
         <v>1080</v>
       </c>
-      <c r="U6" s="21">
+      <c r="U6" s="41">
         <f>T6*S7</f>
         <v>18900000</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="21">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="39"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="4">
         <v>2</v>
       </c>
       <c r="J7" s="4">
         <v>2</v>
       </c>
-      <c r="K7" s="42"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="5">
         <v>3.85</v>
       </c>
-      <c r="M7" s="52"/>
+      <c r="M7" s="56"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="28"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="39"/>
       <c r="R7" s="7">
         <v>35000</v>
       </c>
@@ -1763,37 +2023,37 @@
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="T7" s="57"/>
-      <c r="U7" s="23"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="42"/>
     </row>
     <row r="8" spans="1:21" ht="21">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="4">
         <v>4</v>
       </c>
       <c r="J8" s="4">
         <v>2</v>
       </c>
-      <c r="K8" s="42"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="5">
         <v>0.9</v>
       </c>
-      <c r="M8" s="52"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="28"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="39"/>
       <c r="R8" s="7">
         <v>35000</v>
       </c>
@@ -1801,37 +2061,37 @@
         <f t="shared" si="0"/>
         <v>8750</v>
       </c>
-      <c r="T8" s="57"/>
-      <c r="U8" s="23"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="42"/>
     </row>
     <row r="9" spans="1:21" ht="41.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="4">
         <v>2</v>
       </c>
       <c r="J9" s="4">
         <v>2</v>
       </c>
-      <c r="K9" s="43"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="5">
         <v>0.2</v>
       </c>
-      <c r="M9" s="53"/>
+      <c r="M9" s="57"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="29"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="40"/>
       <c r="R9" s="7">
         <v>35000</v>
       </c>
@@ -1839,12 +2099,12 @@
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="T9" s="58"/>
-      <c r="U9" s="22"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="43"/>
     </row>
     <row r="10" spans="1:21" ht="76.5">
-      <c r="A10" s="33"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1895,7 +2155,7 @@
         <f t="shared" si="0"/>
         <v>8750</v>
       </c>
-      <c r="T10" s="59">
+      <c r="T10" s="21">
         <v>1155</v>
       </c>
       <c r="U10" s="18">
@@ -1904,9 +2164,9 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="191.25" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="38" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="32" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1915,13 +2175,13 @@
       <c r="E11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="26" t="s">
         <v>57</v>
       </c>
       <c r="I11" s="4">
@@ -1930,23 +2190,23 @@
       <c r="J11" s="4">
         <v>4</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="58">
         <v>35</v>
       </c>
       <c r="L11" s="10">
         <v>0.6</v>
       </c>
-      <c r="M11" s="44">
+      <c r="M11" s="45">
         <v>13.7</v>
       </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="41" t="s">
+      <c r="O11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="51">
         <v>57</v>
       </c>
-      <c r="Q11" s="49">
+      <c r="Q11" s="53">
         <v>2.2799999999999998</v>
       </c>
       <c r="R11" s="7">
@@ -1956,42 +2216,42 @@
         <f t="shared" si="0"/>
         <v>8750</v>
       </c>
-      <c r="T11" s="56">
+      <c r="T11" s="48">
         <v>1155</v>
       </c>
-      <c r="U11" s="21">
+      <c r="U11" s="41">
         <f>T11*S11</f>
         <v>10106250</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="21">
-      <c r="A12" s="33"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="4">
         <v>4</v>
       </c>
       <c r="J12" s="4">
         <v>4</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="10">
         <v>0.7</v>
       </c>
-      <c r="M12" s="46"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="50"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="54"/>
       <c r="R12" s="7">
         <v>35000</v>
       </c>
@@ -1999,24 +2259,48 @@
         <f t="shared" si="0"/>
         <v>8750</v>
       </c>
-      <c r="T12" s="58"/>
-      <c r="U12" s="22"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="43"/>
+    </row>
+    <row r="13" spans="1:21" ht="42.75">
+      <c r="A13" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="67">
+        <v>1196</v>
+      </c>
+      <c r="Q13" s="67">
+        <v>48</v>
+      </c>
+      <c r="R13" s="68"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="71">
+        <v>58012500</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U6:U9"/>
+    <mergeCell ref="T6:T9"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
     <mergeCell ref="P2:P5"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
@@ -2033,12 +2317,19 @@
     <mergeCell ref="O6:O9"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="M11:M12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U6:U9"/>
-    <mergeCell ref="T6:T9"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <conditionalFormatting sqref="C2 C5">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
